--- a/Proyecto final prog lin.xlsx
+++ b/Proyecto final prog lin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fd2539099bfb007/Documentos/ITAM/07-semestre/Programación lineal/proyecto-prog-lin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{A6AED604-0CC2-D043-9844-D2B89238AA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025CEEF8-087B-4A2A-B362-DA95651DB7F4}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{A6AED604-0CC2-D043-9844-D2B89238AA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24F8F4DA-4784-4F2D-A4F7-F8B43322D8E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{64ECDD83-31AD-0E4D-8DC5-A3F64F8D53F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" activeTab="1" xr2:uid="{64ECDD83-31AD-0E4D-8DC5-A3F64F8D53F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Encuesta" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
@@ -50,12 +51,15 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Encuesta!$H$68</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Telas!$D$88</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Telas Calc'!$H$28</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
@@ -98,10 +102,13 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -641,6 +648,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C2D62B-BB42-8743-9F71-EDBF8AC63830}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2164,16 +2175,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4837D69-183F-554F-A978-3C89D5DDFE2C}">
   <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="77" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.0625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="11.0625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.4375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2740,7 +2756,7 @@
         <v>12600</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f>$C39*F2</f>
         <v>8400</v>
       </c>
       <c r="H39">
